--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1177918.277338398</v>
+        <v>1171789.520286961</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969142</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10844799.3679741</v>
+        <v>11101232.33965775</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>168.1348165064513</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>248.519753808912</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>157.7513280132384</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93741639686092</v>
+        <v>53.43995086960471</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>50.98074812542835</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>122.6942204073858</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>240.2847863708314</v>
+        <v>224.7543248662174</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>131.3278278838116</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>45.95308864453068</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>238.7809396517846</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>102.6244980900704</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>208.5297823800585</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>78.47556194058308</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>155.2435806730857</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>208.5297823800585</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,16 +2058,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>25.73194049497453</v>
+        <v>44.30292280757614</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>120.4589790596738</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>63.16281301712745</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>47.88058113793238</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>243.1373908222623</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>99.97427419833859</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>18.7084378797731</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>186.0435781263486</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1412.134398099143</v>
+        <v>1452.155307492516</v>
       </c>
       <c r="C2" t="n">
-        <v>1043.171881158731</v>
+        <v>1083.192790552104</v>
       </c>
       <c r="D2" t="n">
-        <v>684.9061825519805</v>
+        <v>724.9270919453541</v>
       </c>
       <c r="E2" t="n">
-        <v>299.1179299537362</v>
+        <v>724.9270919453541</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>313.9411871557465</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>302.2768409204394</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816087</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>2188.873570139076</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y2" t="n">
-        <v>1798.734238163264</v>
+        <v>1838.755147556638</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.50262973664</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568937</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.3304604754449</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>199.9856847044969</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9856847044969</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1279.178225384193</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>989.7610553472321</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X4" t="n">
-        <v>761.7715044492147</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>540.9789253056846</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>906.1570541554036</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="C5" t="n">
-        <v>906.1570541554036</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="D5" t="n">
-        <v>906.1570541554036</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="E5" t="n">
-        <v>906.1570541554036</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="F5" t="n">
-        <v>495.171149365796</v>
+        <v>116.8908811564463</v>
       </c>
       <c r="G5" t="n">
-        <v>79.46639909008485</v>
+        <v>105.2265349211392</v>
       </c>
       <c r="H5" t="n">
-        <v>79.46639909008485</v>
+        <v>105.2265349211392</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4585,7 +4585,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2022.530799662409</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>1669.762144392295</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X5" t="n">
-        <v>1296.296386131215</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y5" t="n">
-        <v>906.1570541554036</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>127.7128549540959</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>312.4344762351459</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>607.1380332666176</v>
       </c>
       <c r="M6" t="n">
-        <v>1001.276695922948</v>
+        <v>970.4000522258377</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1357.685180822783</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.1019332386098</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C7" t="n">
-        <v>157.1019332386098</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D7" t="n">
-        <v>157.1019332386098</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386098</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485136</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426267</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>281.0354892056661</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>157.1019332386098</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>157.1019332386098</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1819.431341154229</v>
+        <v>1802.273730074954</v>
       </c>
       <c r="C8" t="n">
-        <v>1819.431341154229</v>
+        <v>1433.311213134542</v>
       </c>
       <c r="D8" t="n">
-        <v>1461.165642547478</v>
+        <v>1075.045514527792</v>
       </c>
       <c r="E8" t="n">
-        <v>1075.377389949234</v>
+        <v>689.2572619295474</v>
       </c>
       <c r="F8" t="n">
-        <v>664.3914851596267</v>
+        <v>278.2713571399399</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4843,13 +4843,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>2209.570673130041</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y8" t="n">
-        <v>1819.431341154229</v>
+        <v>2188.873570139076</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143496</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>586.4082965573064</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="C10" t="n">
-        <v>586.4082965573064</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="D10" t="n">
-        <v>586.4082965573064</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E10" t="n">
-        <v>438.4952029749132</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F10" t="n">
-        <v>438.4952029749132</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
         <v>305.8408313751036</v>
@@ -4959,10 +4959,10 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1590.028858817395</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1590.028858817395</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1367.050378012131</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429094</v>
+        <v>1077.932040515969</v>
       </c>
       <c r="V10" t="n">
-        <v>1216.838891429094</v>
+        <v>823.2475523100816</v>
       </c>
       <c r="W10" t="n">
-        <v>1216.838891429094</v>
+        <v>533.8303822731209</v>
       </c>
       <c r="X10" t="n">
-        <v>988.8493405310762</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="Y10" t="n">
-        <v>768.0567613875461</v>
+        <v>305.8408313751036</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2175.400891308158</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2952.140063348092</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2562.00073137228</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>796.8106393615039</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C13" t="n">
-        <v>627.8744564335971</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D13" t="n">
-        <v>477.7578170212613</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>477.7578170212613</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1716.658404270252</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1427.241234233291</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1199.251683335274</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>978.4591041917437</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1636.624422581789</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3246.337577224744</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>3040.359829608966</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>2786.829352882803</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>2786.829352882803</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>2786.829352882803</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>2413.363594621723</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2023.224262645911</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064537</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>796.8106393615039</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>627.8744564335971</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>477.7578170212613</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>477.7578170212613</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1716.658404270252</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1427.241234233291</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1199.251683335274</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y16" t="n">
-        <v>978.4591041917437</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,19 +5527,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913855</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417938</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972545</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211832</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2515.675093211832</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258107</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5749,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3110.333886317437</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2941.39770338953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2941.39770338953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4319.256877881987</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4030.181651226185</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4030.181651226185</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3740.764481189224</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3512.774930291207</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3291.982351147677</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,10 +6220,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2875.571313159223</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>2875.571313159223</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159223</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>283.8927175774227</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6718,31 +6718,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7198,10 +7198,10 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7262,19 +7262,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1540.888753373306</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>194.8007783998291</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7405,28 +7405,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7493,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908939</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.538274322277</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.121104285317</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.131553387299</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8057,31 +8057,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>84.94186588374697</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>240.4465442417444</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>14.25823202432778</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8303,13 +8303,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>45.44676101130818</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780643</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>126.491952119223</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>45.99097492814197</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>43.60786094376948</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>30.71219984759276</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>24.58839950885155</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>43.60786094376948</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>226.4057028288535</v>
+        <v>207.8347205162519</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>96.94647126761451</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>116.6691671648098</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>117.6435571543365</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>9.000252501565654</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>46.45968844823058</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>121.5862749664508</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>66.09406519747944</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>807442.6222317873</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>807442.6222317871</v>
+        <v>954496.6942858807</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>954496.6942858808</v>
+        <v>954496.6942858807</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>954496.6942858807</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>954496.6942858807</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>954496.6942858808</v>
+        <v>954496.6942858807</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>954496.6942858808</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>954496.6942858807</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>954496.6942858808</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>954496.6942858807</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
+        <v>472099.0176719631</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
-      <c r="D2" t="n">
-        <v>472099.0176719631</v>
-      </c>
       <c r="E2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="M2" t="n">
+        <v>464109.2948217538</v>
+      </c>
+      <c r="N2" t="n">
+        <v>464109.2948217539</v>
+      </c>
+      <c r="O2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="N2" t="n">
-        <v>464109.2948217536</v>
-      </c>
-      <c r="O2" t="n">
-        <v>464109.2948217536</v>
-      </c>
       <c r="P2" t="n">
-        <v>464109.2948217538</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171908</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598203</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341494</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.8305954512</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6720.683277029938</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6720.683277029938</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
         <v>6897.424496707359</v>
@@ -26441,25 +26441,25 @@
         <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707387</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.77243984472</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-867500.2651754264</v>
+        <v>-867500.2651754261</v>
       </c>
       <c r="C6" t="n">
-        <v>247251.5184004934</v>
+        <v>247251.5184004931</v>
       </c>
       <c r="D6" t="n">
         <v>247251.5184004935</v>
       </c>
       <c r="E6" t="n">
-        <v>129046.6601609449</v>
+        <v>-151743.4803777636</v>
       </c>
       <c r="F6" t="n">
-        <v>311119.6399781357</v>
+        <v>355741.9612467822</v>
       </c>
       <c r="G6" t="n">
-        <v>46246.30704131881</v>
+        <v>355741.9612467823</v>
       </c>
       <c r="H6" t="n">
-        <v>356089.3405011395</v>
+        <v>355741.9612467822</v>
       </c>
       <c r="I6" t="n">
-        <v>356089.3405011391</v>
+        <v>355741.9612467824</v>
       </c>
       <c r="J6" t="n">
-        <v>188484.1626911566</v>
+        <v>188136.7834367999</v>
       </c>
       <c r="K6" t="n">
-        <v>356089.3405011389</v>
+        <v>355741.9612467822</v>
       </c>
       <c r="L6" t="n">
-        <v>356089.3405011391</v>
+        <v>355741.9612467824</v>
       </c>
       <c r="M6" t="n">
-        <v>308537.0747077243</v>
+        <v>223134.6675178557</v>
       </c>
       <c r="N6" t="n">
-        <v>356089.3405011391</v>
+        <v>355741.9612467824</v>
       </c>
       <c r="O6" t="n">
-        <v>273953.509905688</v>
+        <v>355741.9612467823</v>
       </c>
       <c r="P6" t="n">
-        <v>356089.3405011393</v>
+        <v>355741.9612467823</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26816,16 +26816,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757592</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483759</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022541</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>238.7412292352602</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>52.49879875349342</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>9.495493085389398</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27596,10 +27596,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>37.77249627560957</v>
+        <v>12.26996180286575</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>96.27076102970049</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>103.0154349816514</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>171.2629164021226</v>
+        <v>186.7933779067366</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,13 +28019,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.97877216099261</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>55.60448377504295</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>177.745607266772</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>615.0381444378773</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407343</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>382.6222265215971</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>631.6436438346183</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>77.23845291524523</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>412.3780932933486</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
+        <v>391.197099592874</v>
+      </c>
+      <c r="O6" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="O6" t="n">
-        <v>335.424681996123</v>
-      </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35275,7 +35275,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>37.76383318075048</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>472.904110515859</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1171789.520286961</v>
+        <v>1174944.439629182</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>1042617.113969143</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11101232.33965775</v>
+        <v>10844799.3679741</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>79.81437451940135</v>
       </c>
       <c r="H2" t="n">
-        <v>248.519753808912</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>33.08277873797444</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>171.1971464172148</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>113.3951492237203</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>53.43995086960471</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>50.98074812542835</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>92.87962584274388</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>62.18412773543017</v>
       </c>
       <c r="G8" t="n">
-        <v>224.7543248662174</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>45.95308864453068</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>79.12621954347094</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>316.2883174616782</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>102.6244980900704</v>
+        <v>115.8416516122276</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>5.246717585354158</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>155.2435806730857</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>130.3899231758519</v>
       </c>
     </row>
     <row r="17">
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>38.61213096654735</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>44.30292280757614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
     <row r="23">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>47.88058113793238</v>
+        <v>100.2041656279965</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>9.146142788179368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>142.1343012721633</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1452.155307492516</v>
+        <v>867.511359413126</v>
       </c>
       <c r="C2" t="n">
-        <v>1083.192790552104</v>
+        <v>867.511359413126</v>
       </c>
       <c r="D2" t="n">
-        <v>724.9270919453541</v>
+        <v>509.2456608063755</v>
       </c>
       <c r="E2" t="n">
-        <v>724.9270919453541</v>
+        <v>509.2456608063755</v>
       </c>
       <c r="F2" t="n">
-        <v>313.9411871557465</v>
+        <v>502.300160057172</v>
       </c>
       <c r="G2" t="n">
-        <v>302.2768409204394</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.89447953245</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2228.89447953245</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.755147556638</v>
+        <v>1254.111199477248</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>482.9033490193029</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744472</v>
+        <v>777.6069060507746</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>326.0381161665167</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1603.029171854321</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1380.050691049057</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1090.932353552894</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>836.2478653470075</v>
       </c>
       <c r="W4" t="n">
-        <v>1463.519709552058</v>
+        <v>546.8306953100468</v>
       </c>
       <c r="X4" t="n">
-        <v>1235.53015865404</v>
+        <v>546.8306953100468</v>
       </c>
       <c r="Y4" t="n">
-        <v>1014.73757951051</v>
+        <v>326.0381161665167</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>527.8767859460538</v>
+        <v>1660.900948886693</v>
       </c>
       <c r="C5" t="n">
-        <v>527.8767859460538</v>
+        <v>1291.938431946281</v>
       </c>
       <c r="D5" t="n">
-        <v>527.8767859460538</v>
+        <v>933.6727333395304</v>
       </c>
       <c r="E5" t="n">
-        <v>527.8767859460538</v>
+        <v>547.8844807412861</v>
       </c>
       <c r="F5" t="n">
-        <v>116.8908811564463</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>105.2265349211392</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>105.2265349211392</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182945</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X5" t="n">
-        <v>918.0161179218655</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y5" t="n">
-        <v>527.8767859460538</v>
+        <v>2047.500788950814</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4646,25 +4646,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>127.7128549540959</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>312.4344762351459</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>607.1380332666176</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>970.4000522258377</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1357.685180822783</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657496</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378427</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255069</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431138</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>102.7424917452035</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>102.7424917452035</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4725,16 +4725,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1542.628316192938</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1542.628316192938</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1287.943827987051</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>998.5266579500903</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>770.537107052073</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959893</v>
+        <v>549.7445279085429</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1802.273730074954</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C8" t="n">
-        <v>1433.311213134542</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="D8" t="n">
-        <v>1075.045514527792</v>
+        <v>1285.984832846308</v>
       </c>
       <c r="E8" t="n">
-        <v>689.2572619295474</v>
+        <v>900.1965802480638</v>
       </c>
       <c r="F8" t="n">
-        <v>278.2713571399399</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4810,7 +4810,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139076</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y8" t="n">
-        <v>2188.873570139076</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
         <v>909.2465818694943</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>305.8408313751036</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="C10" t="n">
-        <v>305.8408313751036</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="D10" t="n">
-        <v>305.8408313751036</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
         <v>305.8408313751036</v>
@@ -4959,7 +4959,7 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312198</v>
@@ -4977,37 +4977,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1590.028858817395</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1590.028858817395</v>
+        <v>1453.937239303745</v>
       </c>
       <c r="T10" t="n">
-        <v>1367.050378012131</v>
+        <v>1453.937239303745</v>
       </c>
       <c r="U10" t="n">
-        <v>1077.932040515969</v>
+        <v>1164.818901807583</v>
       </c>
       <c r="V10" t="n">
-        <v>823.2475523100816</v>
+        <v>910.134413601696</v>
       </c>
       <c r="W10" t="n">
-        <v>533.8303822731209</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="X10" t="n">
-        <v>305.8408313751036</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="Y10" t="n">
-        <v>305.8408313751036</v>
+        <v>620.7172435647353</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1998.104470293511</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>1998.104470293511</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679666</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3066.775630150325</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>2693.309871889246</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X16" t="n">
-        <v>1394.184733704551</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="Y16" t="n">
-        <v>1173.392154561021</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1643.635426776346</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1354.218256739386</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5955,7 +5955,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6083,7 +6083,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6223,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6375,10 +6375,10 @@
         <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876688</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D31" t="n">
-        <v>430.7826650753331</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E31" t="n">
-        <v>430.7826650753331</v>
+        <v>341.9229394630504</v>
       </c>
       <c r="F31" t="n">
-        <v>283.8927175774227</v>
+        <v>195.03299196514</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6663,10 +6663,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6742,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7165,16 +7165,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7183,25 +7183,25 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7393,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
         <v>261.0127623330919</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7630,37 +7630,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>186.4490126143854</v>
       </c>
       <c r="L3" t="n">
-        <v>84.94186588374697</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>14.25823202432778</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>48.98457430932939</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>45.99097492814197</v>
+        <v>32.77382140598479</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>343.9942511320589</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.58839950885155</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>88.1947301762429</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>207.8347205162519</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
     <row r="23">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>117.6435571543365</v>
+        <v>65.31997266427236</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>110.0033420516647</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>954496.6942858805</v>
+        <v>807442.6222317871</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>954496.6942858807</v>
+        <v>807442.6222317871</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>954496.6942858807</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>954496.6942858805</v>
+        <v>954496.6942858807</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>954496.6942858805</v>
+        <v>954496.6942858807</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.663816559</v>
       </c>
       <c r="F2" t="n">
+        <v>392146.6638165588</v>
+      </c>
+      <c r="G2" t="n">
         <v>464109.2948217536</v>
-      </c>
-      <c r="G2" t="n">
-        <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217538</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217538</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217538</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217538</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217539</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217537</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>182072.9798171907</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.03345982</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>47552.26579341491</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545138</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
+        <v>6720.683277029938</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6720.683277029938</v>
+      </c>
+      <c r="G4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707387</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
         <v>6897.424496707359</v>
@@ -26472,16 +26472,16 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-867500.2651754261</v>
+        <v>-867500.2651754264</v>
       </c>
       <c r="C6" t="n">
-        <v>247251.5184004931</v>
+        <v>247251.5184004933</v>
       </c>
       <c r="D6" t="n">
-        <v>247251.5184004935</v>
+        <v>247251.5184004933</v>
       </c>
       <c r="E6" t="n">
-        <v>-151743.4803777636</v>
+        <v>128699.0412311389</v>
       </c>
       <c r="F6" t="n">
-        <v>355741.9612467822</v>
+        <v>310772.0210483295</v>
       </c>
       <c r="G6" t="n">
-        <v>355741.9612467823</v>
+        <v>46211.56911588344</v>
       </c>
       <c r="H6" t="n">
-        <v>355741.9612467822</v>
+        <v>356054.6025757035</v>
       </c>
       <c r="I6" t="n">
-        <v>355741.9612467824</v>
+        <v>356054.6025757035</v>
       </c>
       <c r="J6" t="n">
-        <v>188136.7834367999</v>
+        <v>188449.424765721</v>
       </c>
       <c r="K6" t="n">
-        <v>355741.9612467822</v>
+        <v>356054.6025757035</v>
       </c>
       <c r="L6" t="n">
-        <v>355741.9612467824</v>
+        <v>356054.6025757035</v>
       </c>
       <c r="M6" t="n">
-        <v>223134.6675178557</v>
+        <v>308502.3367822886</v>
       </c>
       <c r="N6" t="n">
-        <v>355741.9612467824</v>
+        <v>356054.6025757035</v>
       </c>
       <c r="O6" t="n">
-        <v>355741.9612467823</v>
+        <v>273918.7719802521</v>
       </c>
       <c r="P6" t="n">
-        <v>355741.9612467823</v>
+        <v>356054.6025757035</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>331.7333282535526</v>
       </c>
       <c r="H2" t="n">
-        <v>52.49879875349342</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>161.579681623763</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>115.3258519193762</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>293.4808965179911</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>12.26996180286575</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>96.27076102970049</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27827,13 +27827,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>127.8690701544681</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>344.6919180062812</v>
       </c>
       <c r="G8" t="n">
-        <v>186.7933779067366</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28022,10 +28022,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>55.60448377504295</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>115.5362408182665</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>373.0365088578702</v>
       </c>
       <c r="L3" t="n">
-        <v>382.6222265215971</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>77.23845291524523</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
